--- a/data/trans_orig/P6711-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>48817</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38441</v>
+        <v>38006</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60575</v>
+        <v>60512</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3876094136351313</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3052187851352595</v>
+        <v>0.3017667294928737</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4809629919002329</v>
+        <v>0.4804622974791226</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -763,19 +763,19 @@
         <v>32302</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22704</v>
+        <v>22910</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41912</v>
+        <v>42042</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3743740742850954</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2631398261455683</v>
+        <v>0.2655210238194901</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4857456709942034</v>
+        <v>0.4872526009406021</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -784,19 +784,19 @@
         <v>81120</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67906</v>
+        <v>67223</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>98232</v>
+        <v>96496</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3822285079587097</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.319968099484877</v>
+        <v>0.3167485430938165</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4628597139046368</v>
+        <v>0.4546816700468598</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>4543</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11884</v>
+        <v>11208</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03607055479149036</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009573658255400016</v>
+        <v>0.009510451158239654</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09435487641632077</v>
+        <v>0.08898855940885278</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -834,19 +834,19 @@
         <v>5140</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13181</v>
+        <v>12668</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05957122193439306</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02217103558613202</v>
+        <v>0.02221235028121285</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1527704873631599</v>
+        <v>0.1468152215233387</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -855,19 +855,19 @@
         <v>9683</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4406</v>
+        <v>4324</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18149</v>
+        <v>18040</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04562489033851192</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02076299535170163</v>
+        <v>0.02037499870081291</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08551434480813756</v>
+        <v>0.08500397189680453</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>11140</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6317</v>
+        <v>6269</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18654</v>
+        <v>18979</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08844860032688441</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05015660152903569</v>
+        <v>0.04977831499963245</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1481155408602292</v>
+        <v>0.1506896676680118</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -905,19 +905,19 @@
         <v>7383</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3244</v>
+        <v>3143</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14749</v>
+        <v>13123</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08556165256170972</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0375994216885098</v>
+        <v>0.03643037413643707</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1709421821228975</v>
+        <v>0.1520934125450637</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>19</v>
@@ -926,19 +926,19 @@
         <v>18522</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11278</v>
+        <v>10590</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27203</v>
+        <v>28228</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08727489459812883</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05313940024056644</v>
+        <v>0.04989790505696656</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1281792547972654</v>
+        <v>0.1330059114989449</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>3985</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10511</v>
+        <v>8867</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03164380803569194</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007737979422582805</v>
+        <v>0.007669390701890044</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08345720516328665</v>
+        <v>0.0704043506797619</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -976,19 +976,19 @@
         <v>5013</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1078</v>
+        <v>1216</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11084</v>
+        <v>12410</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05809737053957986</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01249563027930006</v>
+        <v>0.01409233936882767</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1284625075146102</v>
+        <v>0.1438286892556332</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -997,19 +997,19 @@
         <v>8998</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4099</v>
+        <v>4243</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17175</v>
+        <v>16223</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04239866069750598</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01931250164285352</v>
+        <v>0.0199932135834134</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08092541009134656</v>
+        <v>0.0764419160705397</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>57460</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45238</v>
+        <v>47236</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68826</v>
+        <v>68793</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.456227623210802</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3591862755010093</v>
+        <v>0.3750537407847422</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5464732265568319</v>
+        <v>0.5462148579091234</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -1047,19 +1047,19 @@
         <v>36446</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28121</v>
+        <v>26809</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47786</v>
+        <v>46760</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4223956806792219</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3259185265350191</v>
+        <v>0.3107068538266925</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.553829629652937</v>
+        <v>0.5419422253049155</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>89</v>
@@ -1068,19 +1068,19 @@
         <v>93905</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>79201</v>
+        <v>78976</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>108325</v>
+        <v>110050</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4424730464071436</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3731881296239393</v>
+        <v>0.3721287129774395</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.510420071361372</v>
+        <v>0.5185475531238692</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>15684</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8751</v>
+        <v>9004</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24294</v>
+        <v>24573</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09105964030580121</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05080420918627793</v>
+        <v>0.05227308632574187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1410449806267337</v>
+        <v>0.1426692099359968</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1193,19 +1193,19 @@
         <v>11006</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5393</v>
+        <v>5306</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18747</v>
+        <v>19585</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09050108463712081</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04434835908491448</v>
+        <v>0.0436281305493315</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1541541934368861</v>
+        <v>0.1610446999158431</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -1214,19 +1214,19 @@
         <v>26690</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17178</v>
+        <v>18347</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37249</v>
+        <v>38209</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09082848074521135</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05845778742349162</v>
+        <v>0.06243723850802845</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1267612200025517</v>
+        <v>0.1300294602812865</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>12968</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6100</v>
+        <v>6662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22071</v>
+        <v>21523</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07529007919803003</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03541431693468571</v>
+        <v>0.03867807970030725</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1281412724014284</v>
+        <v>0.1249617449527905</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1264,19 +1264,19 @@
         <v>15479</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8554</v>
+        <v>8582</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24538</v>
+        <v>25059</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.127280556014913</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07033656193802899</v>
+        <v>0.07056960459834251</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2017730475608758</v>
+        <v>0.2060617974603388</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -1285,19 +1285,19 @@
         <v>28447</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18538</v>
+        <v>18729</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>40057</v>
+        <v>41512</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09680645876363568</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06308542023503316</v>
+        <v>0.06373763406340557</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1363172711452082</v>
+        <v>0.1412709115868154</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>24887</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16612</v>
+        <v>15400</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>36950</v>
+        <v>35831</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1444928244474016</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0964470390845122</v>
+        <v>0.08940961166536959</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2145245220616967</v>
+        <v>0.2080296080261638</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -1335,19 +1335,19 @@
         <v>12393</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6196</v>
+        <v>6154</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20537</v>
+        <v>20791</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1019101089739935</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05095269205723266</v>
+        <v>0.0506014644772202</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.168872179824347</v>
+        <v>0.170963273585736</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>34</v>
@@ -1356,19 +1356,19 @@
         <v>37281</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>26653</v>
+        <v>26215</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>51700</v>
+        <v>51049</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1268698687609765</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0907039149064888</v>
+        <v>0.08921109325016935</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1759409093091203</v>
+        <v>0.1737251353546628</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>11709</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6625</v>
+        <v>6697</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21423</v>
+        <v>19858</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06797834842103337</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03846594676977329</v>
+        <v>0.03887990670562886</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1243808550723751</v>
+        <v>0.1152921807855525</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1406,19 +1406,19 @@
         <v>11228</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6016</v>
+        <v>6092</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19061</v>
+        <v>19471</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09232532517989081</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0494720689300664</v>
+        <v>0.05009219576771011</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1567375668800673</v>
+        <v>0.1601071508881251</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -1427,19 +1427,19 @@
         <v>22936</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14926</v>
+        <v>15410</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33399</v>
+        <v>33755</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07805440129247851</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05079439922390633</v>
+        <v>0.05244287729251875</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1136602564558362</v>
+        <v>0.1148726130648971</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>106992</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93084</v>
+        <v>92586</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>119990</v>
+        <v>120712</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6211791076277339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5404327640648199</v>
+        <v>0.5375406571774091</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6966427115582223</v>
+        <v>0.7008353868864962</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -1477,19 +1477,19 @@
         <v>71505</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59628</v>
+        <v>58971</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82690</v>
+        <v>82369</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5879829251940818</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4903201194479646</v>
+        <v>0.4849130992103399</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6799548971950709</v>
+        <v>0.6773153064156701</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>163</v>
@@ -1498,19 +1498,19 @@
         <v>178496</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>161207</v>
+        <v>160376</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>196988</v>
+        <v>194195</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6074407904376979</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5486027846392743</v>
+        <v>0.545774133657464</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6703687441333659</v>
+        <v>0.6608639013408284</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>8769</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4818</v>
+        <v>4255</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16813</v>
+        <v>15446</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06123898445888902</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03364837083341155</v>
+        <v>0.02971478279520635</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1174085472556205</v>
+        <v>0.1078605622322298</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1623,19 +1623,19 @@
         <v>8103</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3965</v>
+        <v>3961</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14793</v>
+        <v>14981</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09837436070512597</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04813529204258556</v>
+        <v>0.04808624726919285</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1796031895043294</v>
+        <v>0.1818883025145494</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1644,19 +1644,19 @@
         <v>16872</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9903</v>
+        <v>9871</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25775</v>
+        <v>25709</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0747990580300754</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04390077138148774</v>
+        <v>0.04376301899481511</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1142654877922192</v>
+        <v>0.113976482009536</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>11303</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5776</v>
+        <v>6535</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18167</v>
+        <v>19134</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07893059354232915</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04033283712055212</v>
+        <v>0.04563262399016363</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1268667582071676</v>
+        <v>0.1336143735240028</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1694,19 +1694,19 @@
         <v>3307</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8449</v>
+        <v>9028</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04015054938314747</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01165944754615777</v>
+        <v>0.01169994175719946</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1025745555490988</v>
+        <v>0.1096082541933435</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1715,19 +1715,19 @@
         <v>14610</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8126</v>
+        <v>8640</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23086</v>
+        <v>24171</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06476996545536726</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03602318812562946</v>
+        <v>0.03830243279624338</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.102346539451003</v>
+        <v>0.1071570781249651</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>23138</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15256</v>
+        <v>15901</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31915</v>
+        <v>32482</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1615743679832108</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1065336799525944</v>
+        <v>0.1110414933316473</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2228696842117265</v>
+        <v>0.2268287638986918</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -1765,19 +1765,19 @@
         <v>13523</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6873</v>
+        <v>7709</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22651</v>
+        <v>21737</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1641805916075105</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08344844745438457</v>
+        <v>0.09359958006170774</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2750058728272523</v>
+        <v>0.2639057391900629</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>36</v>
@@ -1786,19 +1786,19 @@
         <v>36661</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>25880</v>
+        <v>26738</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>48022</v>
+        <v>47560</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1625260369215873</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1147316197158092</v>
+        <v>0.1185347462496316</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2128935790139531</v>
+        <v>0.2108463393601124</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>28872</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20413</v>
+        <v>21189</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39184</v>
+        <v>39734</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2016153335993248</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1425491918440133</v>
+        <v>0.1479676344953045</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2736301901851075</v>
+        <v>0.2774710694403653</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -1836,19 +1836,19 @@
         <v>13959</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7830</v>
+        <v>7977</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21367</v>
+        <v>21129</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1694698871666961</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0950634636787209</v>
+        <v>0.09684856372531393</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2594163703492581</v>
+        <v>0.256520229669298</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -1857,19 +1857,19 @@
         <v>42830</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32666</v>
+        <v>32243</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55029</v>
+        <v>54324</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1898773451186171</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1448158624530589</v>
+        <v>0.1429415560244535</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2439574885804441</v>
+        <v>0.2408334437234788</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>71119</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58720</v>
+        <v>59482</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>82379</v>
+        <v>82470</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4966407204162462</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4100551126855435</v>
+        <v>0.4153718729345466</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5752649452629487</v>
+        <v>0.5759008483161113</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -1907,19 +1907,19 @@
         <v>43475</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34385</v>
+        <v>34374</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52866</v>
+        <v>52229</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.52782461113752</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4174628779977302</v>
+        <v>0.4173276240629586</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6418419114701799</v>
+        <v>0.6341146460191061</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>112</v>
@@ -1928,19 +1928,19 @@
         <v>114594</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>99163</v>
+        <v>99250</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>130024</v>
+        <v>129946</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.508027594474353</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4396162477739988</v>
+        <v>0.4400036539778606</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5764306936967096</v>
+        <v>0.5760849217992055</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>13142</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7013</v>
+        <v>6868</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22324</v>
+        <v>22383</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09210271442409135</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04915097211429156</v>
+        <v>0.04813588338166711</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.156454394360947</v>
+        <v>0.1568641282523434</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2053,19 +2053,19 @@
         <v>10987</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5767</v>
+        <v>5888</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18607</v>
+        <v>18045</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1072480534613357</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05629064301517506</v>
+        <v>0.05747368047415082</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1816252475590436</v>
+        <v>0.1761413880353392</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -2074,19 +2074,19 @@
         <v>24129</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15868</v>
+        <v>15742</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35046</v>
+        <v>36408</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09843225090873352</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06472959118012196</v>
+        <v>0.06421706492428814</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1429648580574159</v>
+        <v>0.1485203741180153</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>12841</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6785</v>
+        <v>6960</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21521</v>
+        <v>21516</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08999076310052913</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04754944513952361</v>
+        <v>0.04877626801564358</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1508243199890736</v>
+        <v>0.1507898783438736</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -2124,19 +2124,19 @@
         <v>12338</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6602</v>
+        <v>7054</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>21256</v>
+        <v>21789</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1204297681777187</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06444423972568683</v>
+        <v>0.06885866052704319</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2074831868748812</v>
+        <v>0.2126854373154005</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>23</v>
@@ -2145,19 +2145,19 @@
         <v>25178</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16449</v>
+        <v>16620</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>37110</v>
+        <v>37150</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1027118248554685</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0671023144095421</v>
+        <v>0.06779850354090024</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1513863729384879</v>
+        <v>0.1515466193128864</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>19262</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12745</v>
+        <v>12856</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29902</v>
+        <v>29715</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1349923711718203</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08931870829348088</v>
+        <v>0.09010038158804742</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2095631560593756</v>
+        <v>0.2082521934637881</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -2195,19 +2195,19 @@
         <v>21881</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14181</v>
+        <v>14735</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32442</v>
+        <v>31146</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2135796444587147</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1384207183110223</v>
+        <v>0.1438316931686359</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3166698466688443</v>
+        <v>0.304021062483908</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>39</v>
@@ -2216,19 +2216,19 @@
         <v>41143</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30069</v>
+        <v>30950</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>54944</v>
+        <v>54405</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1678355457138176</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1226610329462657</v>
+        <v>0.1262568843197812</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2241342873634587</v>
+        <v>0.2219381635828368</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>24347</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16133</v>
+        <v>15560</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34607</v>
+        <v>33713</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1706321827712429</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1130615079939537</v>
+        <v>0.1090485124371822</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2425317436910971</v>
+        <v>0.2362687925667555</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -2269,16 +2269,16 @@
         <v>9283</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25366</v>
+        <v>23983</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1511717417847224</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09061158545457657</v>
+        <v>0.0906148708334068</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2475977137131937</v>
+        <v>0.2340975546988787</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>39</v>
@@ -2287,19 +2287,19 @@
         <v>39835</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>29620</v>
+        <v>29938</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>53290</v>
+        <v>52776</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1624992799072989</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1208318609617493</v>
+        <v>0.1221277259727913</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2173883288964508</v>
+        <v>0.2152915170801</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>73097</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>60268</v>
+        <v>60573</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>84453</v>
+        <v>85327</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5122819685323163</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4223755763828977</v>
+        <v>0.4245106381065845</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5918673274685938</v>
+        <v>0.5979940928414902</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>38</v>
@@ -2337,19 +2337,19 @@
         <v>41755</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>31192</v>
+        <v>31392</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>52279</v>
+        <v>52307</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4075707921175085</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3044642988570929</v>
+        <v>0.3064200366402899</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5103026279395871</v>
+        <v>0.5105710825155053</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>104</v>
@@ -2358,19 +2358,19 @@
         <v>114852</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>97713</v>
+        <v>98971</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>131451</v>
+        <v>132869</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4685210986146814</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3986060193671567</v>
+        <v>0.4037359076413762</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5362328226253393</v>
+        <v>0.542017414694093</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>17159</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10440</v>
+        <v>10042</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26989</v>
+        <v>25798</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.208461549482445</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1268256182455879</v>
+        <v>0.1219989110342553</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3278756990066092</v>
+        <v>0.3134121657504426</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -2483,19 +2483,19 @@
         <v>17476</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11062</v>
+        <v>11285</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24824</v>
+        <v>24620</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3192336820224818</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2020651728320187</v>
+        <v>0.2061408960060557</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4534650407906131</v>
+        <v>0.4497433358194208</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>31</v>
@@ -2504,19 +2504,19 @@
         <v>34635</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>24869</v>
+        <v>24018</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>46136</v>
+        <v>45214</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2527060200991805</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1814507380133659</v>
+        <v>0.1752445401317448</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3366211837361568</v>
+        <v>0.3298891248353192</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>8222</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3917</v>
+        <v>3883</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15444</v>
+        <v>15460</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09988147874557134</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04758711467188067</v>
+        <v>0.04717633422797794</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1876205329315829</v>
+        <v>0.1878143357395051</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2554,19 +2554,19 @@
         <v>10360</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5556</v>
+        <v>5666</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17814</v>
+        <v>17339</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1892532125316558</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1014908607317309</v>
+        <v>0.1035099096425807</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3254085567643493</v>
+        <v>0.3167335626202538</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>18</v>
@@ -2575,19 +2575,19 @@
         <v>18582</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>11448</v>
+        <v>11085</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>28203</v>
+        <v>28422</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1355782280885159</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08352482777235699</v>
+        <v>0.0808786665643759</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2057760491520773</v>
+        <v>0.2073740071708239</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>21570</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14704</v>
+        <v>13534</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>31075</v>
+        <v>30192</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2620418960482775</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1786280114482947</v>
+        <v>0.1644177537458054</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3775138069592859</v>
+        <v>0.3667873022428138</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -2625,19 +2625,19 @@
         <v>7014</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3024</v>
+        <v>3017</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13437</v>
+        <v>12525</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1281239390082901</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05524380645568129</v>
+        <v>0.05510933407733845</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2454629694183266</v>
+        <v>0.2287916905466635</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -2646,19 +2646,19 @@
         <v>28584</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19550</v>
+        <v>20527</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>38827</v>
+        <v>39463</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2085525483265711</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1426425913039931</v>
+        <v>0.1497715480924403</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2832916242218698</v>
+        <v>0.287932783395174</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>7018</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2860</v>
+        <v>2975</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14702</v>
+        <v>15493</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.08526326243937626</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03474525352291194</v>
+        <v>0.03614576188160383</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1786041377770757</v>
+        <v>0.1882158686564808</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -2696,19 +2696,19 @@
         <v>4154</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1009</v>
+        <v>1032</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9446</v>
+        <v>9679</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0758830480320693</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01842285458099233</v>
+        <v>0.01885767820001907</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1725442754821926</v>
+        <v>0.176812711287364</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -2717,19 +2717,19 @@
         <v>11172</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5932</v>
+        <v>5649</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19347</v>
+        <v>19348</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08151662859559097</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04328118512499546</v>
+        <v>0.04121616784688431</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1411607537537385</v>
+        <v>0.1411639913387551</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>28345</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>20677</v>
+        <v>19994</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>37951</v>
+        <v>39570</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3443518132843299</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2511916656681363</v>
+        <v>0.2429027405708857</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4610561365799593</v>
+        <v>0.4807247430387557</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>16</v>
@@ -2767,19 +2767,19 @@
         <v>15739</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9770</v>
+        <v>9269</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>23070</v>
+        <v>22862</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.287506118405503</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1784673245971738</v>
+        <v>0.1693149184256317</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4214209820765964</v>
+        <v>0.4176192892987316</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>41</v>
@@ -2788,19 +2788,19 @@
         <v>44084</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>33516</v>
+        <v>33687</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>56431</v>
+        <v>56877</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3216465748901415</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2445379707058751</v>
+        <v>0.2457879988906578</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4117356370784923</v>
+        <v>0.4149843039640115</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>8089</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3911</v>
+        <v>3920</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>15423</v>
+        <v>14215</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06839700464325316</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03306634821876438</v>
+        <v>0.03314496702807556</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1304055678733729</v>
+        <v>0.1201956652815438</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -2913,19 +2913,19 @@
         <v>6546</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2282</v>
+        <v>2934</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>12826</v>
+        <v>12848</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1183886723688935</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04126910058172752</v>
+        <v>0.05307091347802791</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2319620562473038</v>
+        <v>0.2323688664517487</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>14</v>
@@ -2934,19 +2934,19 @@
         <v>14635</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>8439</v>
+        <v>8814</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>23918</v>
+        <v>24128</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08432335361273328</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04862426032243217</v>
+        <v>0.05078318456270072</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1378120999883031</v>
+        <v>0.1390180680288844</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>6980</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2157</v>
+        <v>2961</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>14367</v>
+        <v>14781</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05902040875058925</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01824038554662121</v>
+        <v>0.02503421641922458</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1214796184245574</v>
+        <v>0.1249849843352643</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8434</v>
+        <v>9076</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05105714930699644</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1525350942800906</v>
+        <v>0.1641460969105703</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -3005,19 +3005,19 @@
         <v>9803</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4733</v>
+        <v>4896</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>18978</v>
+        <v>18909</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05648347300503261</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0272689231562329</v>
+        <v>0.0282075456951125</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1093477717635378</v>
+        <v>0.1089483634869607</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>18243</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10820</v>
+        <v>10075</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>29059</v>
+        <v>28624</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1542556890242392</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.09149097513991922</v>
+        <v>0.08519346750373631</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.245712173101883</v>
+        <v>0.2420318666624162</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -3055,19 +3055,19 @@
         <v>7739</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3758</v>
+        <v>3765</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>13919</v>
+        <v>13623</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1399716790986482</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06796430603897538</v>
+        <v>0.0680901667154851</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2517420727172981</v>
+        <v>0.2463900857082499</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>23</v>
@@ -3076,19 +3076,19 @@
         <v>25983</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>16373</v>
+        <v>17039</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>37129</v>
+        <v>39729</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1497050881519702</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0943382171286696</v>
+        <v>0.09817475149116162</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2139301049515024</v>
+        <v>0.2289111031867394</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>19725</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>12674</v>
+        <v>12222</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>29078</v>
+        <v>29880</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1667873306567967</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1071684708397467</v>
+        <v>0.1033393468900125</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2458671278813569</v>
+        <v>0.2526517915532499</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>6</v>
@@ -3126,19 +3126,19 @@
         <v>5738</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1950</v>
+        <v>1831</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>11144</v>
+        <v>10730</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1037688106048007</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03527247726665309</v>
+        <v>0.03312330360441212</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2015485380307637</v>
+        <v>0.1940632313767271</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>25</v>
@@ -3147,19 +3147,19 @@
         <v>25463</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>17221</v>
+        <v>17371</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>35578</v>
+        <v>36174</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1467108861701587</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09922176437275065</v>
+        <v>0.1000880862848439</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2049938110903124</v>
+        <v>0.2084252469069628</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>65228</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>53590</v>
+        <v>54296</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>75932</v>
+        <v>76740</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5515395669251217</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4531270249543045</v>
+        <v>0.4590983762204932</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6420413919082255</v>
+        <v>0.6488752299985481</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>30</v>
@@ -3197,19 +3197,19 @@
         <v>32446</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>25202</v>
+        <v>24846</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>39783</v>
+        <v>40127</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5868136886206612</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.455789638620087</v>
+        <v>0.4493543672910466</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7194990325445471</v>
+        <v>0.7257266596338717</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>91</v>
@@ -3218,19 +3218,19 @@
         <v>97674</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>83780</v>
+        <v>83733</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>110835</v>
+        <v>111154</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5627771990601051</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4827206007520339</v>
+        <v>0.4824501450100977</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6386048279148347</v>
+        <v>0.6404425699454028</v>
       </c>
     </row>
     <row r="39">
@@ -3322,19 +3322,19 @@
         <v>20147</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>12768</v>
+        <v>13126</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>30317</v>
+        <v>29905</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.07460388866137047</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04727711853833395</v>
+        <v>0.04860640154481217</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1122608483926852</v>
+        <v>0.1107342031921199</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>16</v>
@@ -3343,19 +3343,19 @@
         <v>17341</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>10586</v>
+        <v>10290</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>26993</v>
+        <v>27007</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.09519641700639692</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05811272578000073</v>
+        <v>0.05648996096489721</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.148177358922828</v>
+        <v>0.1482564777718151</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>36</v>
@@ -3364,19 +3364,19 @@
         <v>37489</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>27011</v>
+        <v>26753</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>51097</v>
+        <v>51484</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.08289902378568323</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05972851785169935</v>
+        <v>0.05915920684467488</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1129911825692436</v>
+        <v>0.113846564644906</v>
       </c>
     </row>
     <row r="41">
@@ -3393,19 +3393,19 @@
         <v>14461</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7846</v>
+        <v>8505</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>24149</v>
+        <v>24740</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05354978892528853</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02905225737370832</v>
+        <v>0.03149405130182875</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.08942055583482604</v>
+        <v>0.09161130924980061</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>9</v>
@@ -3414,19 +3414,19 @@
         <v>9719</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4821</v>
+        <v>4870</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>17688</v>
+        <v>18822</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05335499002698359</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02646265239803009</v>
+        <v>0.02673405946751667</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09709881151336844</v>
+        <v>0.103321455393626</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>23</v>
@@ -3435,19 +3435,19 @@
         <v>24181</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>15115</v>
+        <v>16047</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>35465</v>
+        <v>36546</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.05347131953306856</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03342370493431304</v>
+        <v>0.03548520058415797</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.07842464466075733</v>
+        <v>0.08081439017190828</v>
       </c>
     </row>
     <row r="42">
@@ -3464,19 +3464,19 @@
         <v>69063</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>55353</v>
+        <v>52548</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>86691</v>
+        <v>85362</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2557347515873852</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2049677219359014</v>
+        <v>0.1945829048872016</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3210105878294125</v>
+        <v>0.3160883096295918</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>23</v>
@@ -3485,19 +3485,19 @@
         <v>25455</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>16525</v>
+        <v>16156</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>36270</v>
+        <v>35114</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1397376602570426</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09071426507427309</v>
+        <v>0.0886907095897785</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1991045986152865</v>
+        <v>0.192759180260471</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>84</v>
@@ -3506,19 +3506,19 @@
         <v>94518</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>76943</v>
+        <v>74913</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>116816</v>
+        <v>114629</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2090085055193624</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1701436153568799</v>
+        <v>0.1656549913660017</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2583149575129937</v>
+        <v>0.2534798760772009</v>
       </c>
     </row>
     <row r="43">
@@ -3535,19 +3535,19 @@
         <v>59369</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>45920</v>
+        <v>47586</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>73638</v>
+        <v>75763</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2198391253350298</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1700399232394097</v>
+        <v>0.1762090560703548</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2726758608278388</v>
+        <v>0.2805442895549318</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>33</v>
@@ -3556,19 +3556,19 @@
         <v>34391</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>23754</v>
+        <v>25305</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>46446</v>
+        <v>47099</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1887891334934536</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1304001569556832</v>
+        <v>0.1389148062741548</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2549692431485841</v>
+        <v>0.2585507265144581</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>92</v>
@@ -3577,19 +3577,19 @@
         <v>93760</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>76764</v>
+        <v>77456</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>112370</v>
+        <v>112404</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.20733148792309</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.169748246724699</v>
+        <v>0.1712790472482516</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2484831340831795</v>
+        <v>0.2485593415865966</v>
       </c>
     </row>
     <row r="44">
@@ -3606,19 +3606,19 @@
         <v>107016</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>91622</v>
+        <v>90402</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>125845</v>
+        <v>124463</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3962724454909259</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3392707372481064</v>
+        <v>0.3347511075657754</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.46599350984655</v>
+        <v>0.4608768702636713</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>90</v>
@@ -3627,19 +3627,19 @@
         <v>95258</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>80336</v>
+        <v>82381</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>108807</v>
+        <v>109373</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5229217992161233</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.44100431456152</v>
+        <v>0.4522340382335462</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5972973036576104</v>
+        <v>0.6004088826949647</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>187</v>
@@ -3648,19 +3648,19 @@
         <v>202275</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>179114</v>
+        <v>180931</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>224919</v>
+        <v>224869</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4472896632387958</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3960755341944515</v>
+        <v>0.4000923971844113</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4973635854757041</v>
+        <v>0.4972532035970016</v>
       </c>
     </row>
     <row r="45">
@@ -3752,19 +3752,19 @@
         <v>26297</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>16523</v>
+        <v>17063</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>38016</v>
+        <v>37727</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.07300146257071205</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.04586840616958237</v>
+        <v>0.04736673950622792</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1055332963891402</v>
+        <v>0.1047293258739385</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>24</v>
@@ -3773,19 +3773,19 @@
         <v>27234</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>16777</v>
+        <v>18385</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>38818</v>
+        <v>39996</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1057450457998079</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.06514154036526441</v>
+        <v>0.07138516646984948</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1507228382393513</v>
+        <v>0.1552967588754382</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>47</v>
@@ -3794,19 +3794,19 @@
         <v>53531</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>40224</v>
+        <v>40908</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>71568</v>
+        <v>71775</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.08665188693917333</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.06511033992933787</v>
+        <v>0.06621755570489112</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1158482654927699</v>
+        <v>0.1161828227123997</v>
       </c>
     </row>
     <row r="47">
@@ -3823,19 +3823,19 @@
         <v>13862</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>8062</v>
+        <v>7118</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>24000</v>
+        <v>23245</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.03848200585211781</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02238002442464412</v>
+        <v>0.01975892997534182</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.0666237430770641</v>
+        <v>0.06452764750082265</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>13</v>
@@ -3844,19 +3844,19 @@
         <v>13783</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>7745</v>
+        <v>7547</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>23147</v>
+        <v>22305</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.0535166453545589</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03007248456377326</v>
+        <v>0.02930393365509542</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.08987714203725129</v>
+        <v>0.08660602667361174</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>26</v>
@@ -3865,19 +3865,19 @@
         <v>27645</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>18459</v>
+        <v>18811</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>41595</v>
+        <v>39415</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.04474977465430518</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02987909289892053</v>
+        <v>0.03044908339405967</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.06733006828781005</v>
+        <v>0.06380138151938017</v>
       </c>
     </row>
     <row r="48">
@@ -3894,19 +3894,19 @@
         <v>78179</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>63144</v>
+        <v>63210</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>94851</v>
+        <v>96296</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2170233434891878</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1752864342711928</v>
+        <v>0.1754710928830845</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2633047033845565</v>
+        <v>0.267317257334859</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>40</v>
@@ -3915,19 +3915,19 @@
         <v>43153</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>32131</v>
+        <v>30836</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>56658</v>
+        <v>56798</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1675571676759318</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1247606837212528</v>
+        <v>0.1197297217320986</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2199935337072327</v>
+        <v>0.2205369132997478</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>113</v>
@@ -3936,19 +3936,19 @@
         <v>121332</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>100382</v>
+        <v>101798</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>141610</v>
+        <v>142875</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1964014620349966</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1624899660162951</v>
+        <v>0.1647811907578425</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2292261125730495</v>
+        <v>0.2312724560115964</v>
       </c>
     </row>
     <row r="49">
@@ -3965,19 +3965,19 @@
         <v>107376</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>89686</v>
+        <v>88356</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>126791</v>
+        <v>124295</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2980746639242717</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2489669073626971</v>
+        <v>0.2452764480379364</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3519701830612828</v>
+        <v>0.3450422665405251</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>81</v>
@@ -3986,19 +3986,19 @@
         <v>89021</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>73497</v>
+        <v>73875</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>106815</v>
+        <v>104221</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3456538138185801</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2853748083454151</v>
+        <v>0.2868430394417645</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4147433103465741</v>
+        <v>0.4046709695133032</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>183</v>
@@ -4007,19 +4007,19 @@
         <v>196397</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>172792</v>
+        <v>173920</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>220089</v>
+        <v>220799</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3179098659119032</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2796998659857752</v>
+        <v>0.2815258588290452</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3562609475948384</v>
+        <v>0.3574096108935692</v>
       </c>
     </row>
     <row r="50">
@@ -4036,19 +4036,19 @@
         <v>134517</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>115869</v>
+        <v>117348</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>153564</v>
+        <v>156311</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3734185241637106</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3216518434459163</v>
+        <v>0.3257553484469289</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4262925729537402</v>
+        <v>0.4339184646165442</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>75</v>
@@ -4057,19 +4057,19 @@
         <v>84353</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>68910</v>
+        <v>69777</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>102068</v>
+        <v>99813</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3275273273511212</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2675671383534216</v>
+        <v>0.2709336702424134</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3963125700437712</v>
+        <v>0.3875567936639276</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>199</v>
@@ -4078,19 +4078,19 @@
         <v>218870</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>194594</v>
+        <v>195194</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>243895</v>
+        <v>244940</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3542870104596217</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3149912188294453</v>
+        <v>0.3159617191905397</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3947953747020286</v>
+        <v>0.3964867026080385</v>
       </c>
     </row>
     <row r="51">
@@ -4182,19 +4182,19 @@
         <v>158106</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>135187</v>
+        <v>135855</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>186889</v>
+        <v>185705</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1117403237839614</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.09554214818584224</v>
+        <v>0.09601411831432519</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1320819288944506</v>
+        <v>0.1312452899406831</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>120</v>
@@ -4203,19 +4203,19 @@
         <v>130995</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>110688</v>
+        <v>110165</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>154870</v>
+        <v>154988</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1389940255188589</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1174469057568899</v>
+        <v>0.1168915794506577</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1643263255711285</v>
+        <v>0.1644525270516064</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>267</v>
@@ -4224,19 +4224,19 @@
         <v>289101</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>257104</v>
+        <v>254911</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>321913</v>
+        <v>321266</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1226359454313633</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1090628733644938</v>
+        <v>0.1081325823151612</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1365542915639117</v>
+        <v>0.1362798662943059</v>
       </c>
     </row>
     <row r="53">
@@ -4253,19 +4253,19 @@
         <v>85180</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>69244</v>
+        <v>67569</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>105784</v>
+        <v>104315</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.06020037512586694</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.04893770104894796</v>
+        <v>0.04775418539566483</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.07476204551267869</v>
+        <v>0.07372366413006391</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>65</v>
@@ -4274,19 +4274,19 @@
         <v>72949</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>56688</v>
+        <v>56564</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>91225</v>
+        <v>90590</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.07740353481154212</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.06014954235716129</v>
+        <v>0.06001801656017252</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.09679515838793563</v>
+        <v>0.09612198686576758</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>146</v>
@@ -4295,19 +4295,19 @@
         <v>158129</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>131835</v>
+        <v>135599</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>188799</v>
+        <v>185609</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.06707794063598424</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.05592393074315857</v>
+        <v>0.05752063746756424</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.0800877488342974</v>
+        <v>0.07873479422861102</v>
       </c>
     </row>
     <row r="54">
@@ -4324,19 +4324,19 @@
         <v>265481</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>233408</v>
+        <v>234524</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>298476</v>
+        <v>294653</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1876266613425647</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1649590763311311</v>
+        <v>0.1657479528392332</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2109451183413873</v>
+        <v>0.2082437424473441</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>129</v>
@@ -4345,19 +4345,19 @@
         <v>138541</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>117433</v>
+        <v>118050</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>162079</v>
+        <v>163284</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1470010982423131</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1246042685751718</v>
+        <v>0.1252584811721371</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1719762281265745</v>
+        <v>0.1732543495216936</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>376</v>
@@ -4366,19 +4366,19 @@
         <v>404023</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>366978</v>
+        <v>369052</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>447288</v>
+        <v>442007</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1713851698542284</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1556707492650017</v>
+        <v>0.1565506023755287</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1897380257855452</v>
+        <v>0.1874978012176911</v>
       </c>
     </row>
     <row r="55">
@@ -4395,19 +4395,19 @@
         <v>262402</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>236011</v>
+        <v>235593</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>294349</v>
+        <v>293026</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.185450178165159</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1667985190553989</v>
+        <v>0.1665037524462046</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2080289748628635</v>
+        <v>0.2070934512695125</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>168</v>
@@ -4416,19 +4416,19 @@
         <v>178990</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>154074</v>
+        <v>155638</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>204680</v>
+        <v>205981</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1899194187406686</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1634824785621325</v>
+        <v>0.1651417495418325</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2171788943293518</v>
+        <v>0.2185586337114716</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>423</v>
@@ -4437,19 +4437,19 @@
         <v>441392</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>405914</v>
+        <v>401445</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>483215</v>
+        <v>482659</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1872369135905202</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.172187602959589</v>
+        <v>0.1702916191214498</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2049781599579034</v>
+        <v>0.2047426003583778</v>
       </c>
     </row>
     <row r="56">
@@ -4466,19 +4466,19 @@
         <v>643775</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>610647</v>
+        <v>605311</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>684265</v>
+        <v>682599</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.454982461582448</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.4315698383252452</v>
+        <v>0.4277984070312221</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4835989102218116</v>
+        <v>0.4824215459714211</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>388</v>
@@ -4487,19 +4487,19 @@
         <v>420976</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>386776</v>
+        <v>388758</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>451887</v>
+        <v>450910</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.4466819226866173</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.4103940742993996</v>
+        <v>0.4124963702658143</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4794807627739177</v>
+        <v>0.4784439599874707</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>986</v>
@@ -4508,19 +4508,19 @@
         <v>1064751</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1015766</v>
+        <v>1017221</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1114004</v>
+        <v>1115899</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.4516640304879039</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.4308848836459407</v>
+        <v>0.4315018458272424</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.4725570084028041</v>
+        <v>0.4733606931671573</v>
       </c>
     </row>
     <row r="57">
@@ -4856,19 +4856,19 @@
         <v>41722</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31285</v>
+        <v>30343</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54395</v>
+        <v>53100</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3135812272311603</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2351344427323658</v>
+        <v>0.2280521596679475</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4088250889148087</v>
+        <v>0.3990948238236573</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -4877,19 +4877,19 @@
         <v>36231</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26978</v>
+        <v>26540</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46570</v>
+        <v>46500</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3620558969866408</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2695933993865984</v>
+        <v>0.2652156895002711</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.465375428659673</v>
+        <v>0.4646731150265013</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -4898,19 +4898,19 @@
         <v>77953</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64003</v>
+        <v>64210</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93094</v>
+        <v>93721</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3343895470885879</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2745487528812761</v>
+        <v>0.275439075323112</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3993379310805115</v>
+        <v>0.4020272992553798</v>
       </c>
     </row>
     <row r="5">
@@ -4927,19 +4927,19 @@
         <v>6913</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2291</v>
+        <v>3028</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13604</v>
+        <v>13781</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0519582606458393</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01722196450009979</v>
+        <v>0.02276134586550674</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1022480402817011</v>
+        <v>0.1035779376720467</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -4948,19 +4948,19 @@
         <v>6223</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1927</v>
+        <v>2085</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14046</v>
+        <v>14874</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0621864784431676</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01926020276447439</v>
+        <v>0.02083561438726542</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1403601102599704</v>
+        <v>0.1486314219854944</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -4969,19 +4969,19 @@
         <v>13136</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6519</v>
+        <v>7089</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23080</v>
+        <v>23841</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05634884295556566</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02796616867831465</v>
+        <v>0.03040993634078322</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09900640031592446</v>
+        <v>0.1022709632049575</v>
       </c>
     </row>
     <row r="6">
@@ -4998,19 +4998,19 @@
         <v>13941</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7638</v>
+        <v>7372</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23052</v>
+        <v>22904</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.104780446309549</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.057406939053425</v>
+        <v>0.05540954760877582</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.173255736137894</v>
+        <v>0.1721460222953755</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -5019,19 +5019,19 @@
         <v>11298</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5818</v>
+        <v>6120</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18384</v>
+        <v>19201</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1128994287670212</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0581374071265142</v>
+        <v>0.06115854911804374</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1837094189891438</v>
+        <v>0.1918745840039643</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -5040,19 +5040,19 @@
         <v>25239</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16795</v>
+        <v>16450</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>36400</v>
+        <v>37151</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1082656146406406</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07204630493644992</v>
+        <v>0.07056340003413045</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1561419856135338</v>
+        <v>0.1593625051399784</v>
       </c>
     </row>
     <row r="7">
@@ -5069,19 +5069,19 @@
         <v>12746</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6508</v>
+        <v>6717</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22116</v>
+        <v>22882</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09579985851326545</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04891536623828789</v>
+        <v>0.05048697391295507</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1662227736059448</v>
+        <v>0.1719781483868281</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -5090,19 +5090,19 @@
         <v>5559</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1942</v>
+        <v>2020</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11192</v>
+        <v>11689</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05555487389473733</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01940776361522089</v>
+        <v>0.02018615425853424</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1118462731494117</v>
+        <v>0.1168100422191925</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -5111,19 +5111,19 @@
         <v>18306</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10266</v>
+        <v>11094</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28446</v>
+        <v>28372</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07852422740894204</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04403721287743827</v>
+        <v>0.0475880800055433</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.122023679876454</v>
+        <v>0.1217064487733871</v>
       </c>
     </row>
     <row r="8">
@@ -5140,19 +5140,19 @@
         <v>57728</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45325</v>
+        <v>45994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>69963</v>
+        <v>70609</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4338802073001859</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3406568500344149</v>
+        <v>0.3456844395020624</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5258376942795699</v>
+        <v>0.5306941332124064</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>39</v>
@@ -5161,19 +5161,19 @@
         <v>40759</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>31969</v>
+        <v>30304</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50881</v>
+        <v>50065</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.407303321908433</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3194709437472369</v>
+        <v>0.3028265193675032</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5084571529480134</v>
+        <v>0.5003042737002392</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>91</v>
@@ -5182,19 +5182,19 @@
         <v>98487</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>83628</v>
+        <v>82971</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>114724</v>
+        <v>113853</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4224717679062638</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3587341728736315</v>
+        <v>0.3559133352683</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4921250393597444</v>
+        <v>0.4883897122871746</v>
       </c>
     </row>
     <row r="9">
@@ -5286,19 +5286,19 @@
         <v>21074</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13159</v>
+        <v>12704</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33487</v>
+        <v>32412</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1237461424014353</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07726817669925018</v>
+        <v>0.0745995340478824</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1966368702778868</v>
+        <v>0.1903263168740607</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -5307,19 +5307,19 @@
         <v>25209</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17238</v>
+        <v>16722</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34368</v>
+        <v>34675</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2217548185416716</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1516369689864718</v>
+        <v>0.1470944206133303</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3023181752658204</v>
+        <v>0.30502031762391</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -5328,19 +5328,19 @@
         <v>46283</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34781</v>
+        <v>33924</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61831</v>
+        <v>61749</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1629804678776806</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1224787826618699</v>
+        <v>0.1194599130416642</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2177330131720085</v>
+        <v>0.2174437185713252</v>
       </c>
     </row>
     <row r="11">
@@ -5357,19 +5357,19 @@
         <v>26254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17497</v>
+        <v>17614</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37238</v>
+        <v>36854</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1541684422129972</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1027445651395217</v>
+        <v>0.1034303057383668</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.218663277507933</v>
+        <v>0.2164080992956762</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -5378,19 +5378,19 @@
         <v>15264</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8811</v>
+        <v>8963</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24082</v>
+        <v>23442</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1342751862611293</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07750966559276172</v>
+        <v>0.07884781066680599</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2118437551071612</v>
+        <v>0.2062069869533006</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>39</v>
@@ -5399,19 +5399,19 @@
         <v>41519</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>30576</v>
+        <v>30944</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>54989</v>
+        <v>56354</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1462048770518777</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1076708384081946</v>
+        <v>0.1089666169362635</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1936380168512531</v>
+        <v>0.1984473618366416</v>
       </c>
     </row>
     <row r="12">
@@ -5428,19 +5428,19 @@
         <v>41672</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30661</v>
+        <v>31311</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53840</v>
+        <v>54383</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2447036128168297</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1800442816952938</v>
+        <v>0.1838600483443613</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.316153254310992</v>
+        <v>0.3193417088360869</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -5449,19 +5449,19 @@
         <v>17237</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10221</v>
+        <v>11038</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25549</v>
+        <v>26642</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1516284264080409</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08991299876467923</v>
+        <v>0.09709806094527398</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2247411352256598</v>
+        <v>0.2343583106189053</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>57</v>
@@ -5470,19 +5470,19 @@
         <v>58909</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>46847</v>
+        <v>46077</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>73465</v>
+        <v>74563</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.207444236390813</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1649668612998012</v>
+        <v>0.1622546703568832</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2586996072288911</v>
+        <v>0.2625679644733478</v>
       </c>
     </row>
     <row r="13">
@@ -5499,19 +5499,19 @@
         <v>26475</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17283</v>
+        <v>17997</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36480</v>
+        <v>37449</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1554629414457782</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1014855068441643</v>
+        <v>0.1056788956845195</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2142167470307331</v>
+        <v>0.2199018762069048</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -5520,19 +5520,19 @@
         <v>10610</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5120</v>
+        <v>5099</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19355</v>
+        <v>17885</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09333600256841627</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04504012666145218</v>
+        <v>0.04485448151490089</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1702609693433496</v>
+        <v>0.1573319102471893</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -5541,19 +5541,19 @@
         <v>37085</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26913</v>
+        <v>26662</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50213</v>
+        <v>49574</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1305926071371146</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09477033601151495</v>
+        <v>0.09388954570518769</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1768219883874776</v>
+        <v>0.1745701418305231</v>
       </c>
     </row>
     <row r="14">
@@ -5570,19 +5570,19 @@
         <v>54822</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42810</v>
+        <v>43635</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>68701</v>
+        <v>68130</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3219188611229596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2513858054814899</v>
+        <v>0.2562274272966046</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4034174791554555</v>
+        <v>0.4000652978496825</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -5591,19 +5591,19 @@
         <v>45359</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35312</v>
+        <v>35820</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56521</v>
+        <v>56331</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3990055662207419</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3106248410077763</v>
+        <v>0.3150982601223097</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4971968220983226</v>
+        <v>0.4955221941020439</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>94</v>
@@ -5612,19 +5612,19 @@
         <v>100181</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>82938</v>
+        <v>85383</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>116794</v>
+        <v>118731</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3527778115425141</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.292058738557044</v>
+        <v>0.3006684731748673</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4112800475527035</v>
+        <v>0.4180998684887204</v>
       </c>
     </row>
     <row r="15">
@@ -5716,19 +5716,19 @@
         <v>28919</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20399</v>
+        <v>20017</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38573</v>
+        <v>37791</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2302631771425505</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.162427156906202</v>
+        <v>0.1593854374015279</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3071369141578428</v>
+        <v>0.3009123437147623</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -5737,19 +5737,19 @@
         <v>21688</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14131</v>
+        <v>13695</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30320</v>
+        <v>29731</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2571764886862481</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1675582876331502</v>
+        <v>0.1623886347133623</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3595236298911313</v>
+        <v>0.3525406497098189</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -5758,19 +5758,19 @@
         <v>50607</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39535</v>
+        <v>40197</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>62626</v>
+        <v>63120</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2410752245578243</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1883325178471713</v>
+        <v>0.1914863928973118</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2983311559844999</v>
+        <v>0.3006840049143942</v>
       </c>
     </row>
     <row r="17">
@@ -5787,19 +5787,19 @@
         <v>14991</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8703</v>
+        <v>8464</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23478</v>
+        <v>22701</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1193621336680873</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06929980667003552</v>
+        <v>0.06739836725241014</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1869436682300803</v>
+        <v>0.1807538056213396</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -5808,19 +5808,19 @@
         <v>7666</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3509</v>
+        <v>3536</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13798</v>
+        <v>13823</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09090077017522823</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04161404208681574</v>
+        <v>0.04192942846407031</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1636114458980767</v>
+        <v>0.1639102857132937</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -5829,19 +5829,19 @@
         <v>22656</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14461</v>
+        <v>14848</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32492</v>
+        <v>32000</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1079281779808245</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06888736651948986</v>
+        <v>0.07073282964882402</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1547810599455684</v>
+        <v>0.1524379443267283</v>
       </c>
     </row>
     <row r="18">
@@ -5858,19 +5858,19 @@
         <v>37427</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>29175</v>
+        <v>28602</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50245</v>
+        <v>47961</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2980140122685551</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2323032175182877</v>
+        <v>0.2277415499962384</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4000714485487269</v>
+        <v>0.3818897142840205</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>25</v>
@@ -5879,19 +5879,19 @@
         <v>23078</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15741</v>
+        <v>15674</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31486</v>
+        <v>31238</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2736578585073689</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.186652216613262</v>
+        <v>0.1858632362326788</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3733487903237588</v>
+        <v>0.3704150798826301</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>64</v>
@@ -5900,19 +5900,19 @@
         <v>60506</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>48042</v>
+        <v>47882</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>73391</v>
+        <v>73902</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2882292673146658</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2288569278063821</v>
+        <v>0.228093279931402</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3496114149170223</v>
+        <v>0.3520458158280863</v>
       </c>
     </row>
     <row r="19">
@@ -5929,19 +5929,19 @@
         <v>27511</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19174</v>
+        <v>19083</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37280</v>
+        <v>37925</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2190540053621909</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1526755425696547</v>
+        <v>0.151944180808035</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2968398098310515</v>
+        <v>0.3019771654205589</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -5950,19 +5950,19 @@
         <v>18862</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11979</v>
+        <v>12038</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27403</v>
+        <v>28297</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2236605863067903</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1420422754292477</v>
+        <v>0.1427472846498259</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3249427031798424</v>
+        <v>0.3355337266374488</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -5971,19 +5971,19 @@
         <v>46373</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35336</v>
+        <v>35456</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58886</v>
+        <v>57729</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2209046349851727</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.168329756151733</v>
+        <v>0.1689023317513422</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2805154128016522</v>
+        <v>0.2750035642369438</v>
       </c>
     </row>
     <row r="20">
@@ -6000,19 +6000,19 @@
         <v>16742</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10192</v>
+        <v>10004</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24632</v>
+        <v>24037</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1333066715586163</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08115612939180999</v>
+        <v>0.07965738974233297</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1961287184072752</v>
+        <v>0.1913975328443711</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -6021,19 +6021,19 @@
         <v>13038</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7379</v>
+        <v>7407</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21040</v>
+        <v>21699</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1546042963243645</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08749363671552692</v>
+        <v>0.08782904557755983</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2494870874240419</v>
+        <v>0.257295979038514</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -6042,19 +6042,19 @@
         <v>29780</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>20859</v>
+        <v>20514</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40602</v>
+        <v>41414</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1418626951615127</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09936560840820725</v>
+        <v>0.09772368567618429</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1934127939398541</v>
+        <v>0.1972838015991054</v>
       </c>
     </row>
     <row r="21">
@@ -6146,19 +6146,19 @@
         <v>35145</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25592</v>
+        <v>25581</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46591</v>
+        <v>44831</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.313290532272348</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2281351313530908</v>
+        <v>0.2280366508739527</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4153229134227603</v>
+        <v>0.3996379254770588</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -6167,19 +6167,19 @@
         <v>26602</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18889</v>
+        <v>18377</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36471</v>
+        <v>35738</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3249696514341875</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2307496764260963</v>
+        <v>0.2245016599195906</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4455336740308192</v>
+        <v>0.4365749233672528</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -6188,19 +6188,19 @@
         <v>61747</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>49931</v>
+        <v>48080</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>75040</v>
+        <v>75589</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3182175774251937</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2573247589471852</v>
+        <v>0.2477835780708183</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3867270490116067</v>
+        <v>0.3895572325538804</v>
       </c>
     </row>
     <row r="23">
@@ -6217,19 +6217,19 @@
         <v>3936</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>989</v>
+        <v>971</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9615</v>
+        <v>9817</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03508317158466748</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008815742970549567</v>
+        <v>0.008653102294197681</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08571283928341233</v>
+        <v>0.08750869667355068</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -6238,19 +6238,19 @@
         <v>4629</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10295</v>
+        <v>11284</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0565498763010391</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01438306862891251</v>
+        <v>0.01420802939227922</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1257698300245501</v>
+        <v>0.1378499200170399</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -6259,19 +6259,19 @@
         <v>8565</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3979</v>
+        <v>3947</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>16077</v>
+        <v>15538</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04413928463178457</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02050728321735667</v>
+        <v>0.02034275313245485</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0828565647790379</v>
+        <v>0.08007815383275856</v>
       </c>
     </row>
     <row r="24">
@@ -6288,19 +6288,19 @@
         <v>14080</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7996</v>
+        <v>7904</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23566</v>
+        <v>22834</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1255150219693101</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07127408142398625</v>
+        <v>0.07046122896003197</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2100767922230184</v>
+        <v>0.2035457409678784</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -6309,19 +6309,19 @@
         <v>7607</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3646</v>
+        <v>3539</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13903</v>
+        <v>14044</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09293317621404455</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04454031189146417</v>
+        <v>0.04323683875279775</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1698439479732846</v>
+        <v>0.1715658897672994</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -6330,19 +6330,19 @@
         <v>21688</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13992</v>
+        <v>14131</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>31356</v>
+        <v>32220</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1117697880201803</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07210753776963402</v>
+        <v>0.07282680391570862</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1615966115698101</v>
+        <v>0.166050967512772</v>
       </c>
     </row>
     <row r="25">
@@ -6359,19 +6359,19 @@
         <v>6483</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2796</v>
+        <v>2681</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13357</v>
+        <v>13918</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05779254737988402</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02492698553173429</v>
+        <v>0.02389915632245038</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.119068876068754</v>
+        <v>0.1240699788933409</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -6380,19 +6380,19 @@
         <v>9419</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4673</v>
+        <v>4589</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16622</v>
+        <v>16838</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1150580797675555</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05709177991345692</v>
+        <v>0.05605955808353039</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2030600104178744</v>
+        <v>0.2056946744499314</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -6401,19 +6401,19 @@
         <v>15902</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8437</v>
+        <v>9134</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25400</v>
+        <v>25105</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08195103569274484</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04348070480296994</v>
+        <v>0.04707361783132085</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1309036353721655</v>
+        <v>0.12938086641786</v>
       </c>
     </row>
     <row r="26">
@@ -6430,19 +6430,19 @@
         <v>52536</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>40839</v>
+        <v>42278</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>63877</v>
+        <v>64352</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4683187267937903</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.364053021601927</v>
+        <v>0.3768774439898507</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5694139233153156</v>
+        <v>0.5736465449746893</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>33</v>
@@ -6451,19 +6451,19 @@
         <v>33602</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>25121</v>
+        <v>24979</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>42541</v>
+        <v>42750</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4104892162831734</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3068834027822973</v>
+        <v>0.3051499986692188</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5196821182741497</v>
+        <v>0.5222397711081728</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>82</v>
@@ -6472,19 +6472,19 @@
         <v>86138</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>73118</v>
+        <v>73138</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>100128</v>
+        <v>102203</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4439223142300965</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3768232982204571</v>
+        <v>0.3769234249897219</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5160183291714602</v>
+        <v>0.526714101788465</v>
       </c>
     </row>
     <row r="27">
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5909</v>
+        <v>6681</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0235210531325398</v>
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07300882489484464</v>
+        <v>0.08255028310981435</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8121</v>
+        <v>8640</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04513309485157047</v>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1465479256242076</v>
+        <v>0.1559096111873338</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -6618,19 +6618,19 @@
         <v>4405</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1042</v>
+        <v>1018</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10382</v>
+        <v>10605</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03230520851608835</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007640579172691062</v>
+        <v>0.007466616495842779</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0761444623771164</v>
+        <v>0.07778195861259242</v>
       </c>
     </row>
     <row r="29">
@@ -6647,19 +6647,19 @@
         <v>12689</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6702</v>
+        <v>6699</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20595</v>
+        <v>20478</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1567840289393119</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08281601585053962</v>
+        <v>0.0827803121825068</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2544763881580118</v>
+        <v>0.2530315186767074</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -6668,19 +6668,19 @@
         <v>7131</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3484</v>
+        <v>3521</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12989</v>
+        <v>12663</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1286690972564268</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06286267345286364</v>
+        <v>0.06353791384509652</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2343899272587275</v>
+        <v>0.228495099804868</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -6689,19 +6689,19 @@
         <v>19819</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12834</v>
+        <v>12591</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>29488</v>
+        <v>29768</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1453567916745029</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09412971252067484</v>
+        <v>0.09234378163989437</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2162713766010344</v>
+        <v>0.2183257646021424</v>
       </c>
     </row>
     <row r="30">
@@ -6718,19 +6718,19 @@
         <v>25028</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16929</v>
+        <v>16905</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>33833</v>
+        <v>34219</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3092494779590045</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.209176646975179</v>
+        <v>0.2088851491777544</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4180486330519333</v>
+        <v>0.4228182141647829</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -6739,19 +6739,19 @@
         <v>16834</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11083</v>
+        <v>11291</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24394</v>
+        <v>23963</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3037605414066927</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1999949759967341</v>
+        <v>0.2037369069282822</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4401903714125757</v>
+        <v>0.4324083608531767</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>43</v>
@@ -6760,19 +6760,19 @@
         <v>41861</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>31389</v>
+        <v>31964</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>53015</v>
+        <v>53420</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3070185146750733</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2302118612418929</v>
+        <v>0.2344327026068337</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3888184798303949</v>
+        <v>0.3917950644484605</v>
       </c>
     </row>
     <row r="31">
@@ -6789,19 +6789,19 @@
         <v>33333</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>24920</v>
+        <v>25029</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42101</v>
+        <v>42970</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4118697165940431</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3079158863508913</v>
+        <v>0.3092666198881986</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5202186522436215</v>
+        <v>0.5309525150298177</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>26</v>
@@ -6810,19 +6810,19 @@
         <v>23507</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>17009</v>
+        <v>16118</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>30792</v>
+        <v>29907</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4241808661855612</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3069190732132854</v>
+        <v>0.2908367151304966</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5556330754636168</v>
+        <v>0.5396549151206639</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>59</v>
@@ -6831,19 +6831,19 @@
         <v>56840</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>45866</v>
+        <v>45707</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>68481</v>
+        <v>67092</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4168735497518691</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.336388257773336</v>
+        <v>0.3352248102263029</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5022482490508432</v>
+        <v>0.4920662044788404</v>
       </c>
     </row>
     <row r="32">
@@ -6860,19 +6860,19 @@
         <v>7978</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3674</v>
+        <v>3346</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14930</v>
+        <v>14576</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09857572337510076</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04539264282202746</v>
+        <v>0.04134872107969087</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1844743750687205</v>
+        <v>0.1801075335483085</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -6881,19 +6881,19 @@
         <v>5445</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1884</v>
+        <v>1858</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11998</v>
+        <v>11941</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09825640029974887</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03400023400854597</v>
+        <v>0.03352589067892577</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2165032838133712</v>
+        <v>0.2154803968923686</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>13</v>
@@ -6902,19 +6902,19 @@
         <v>13423</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6989</v>
+        <v>7521</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>21258</v>
+        <v>21983</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09844593538246638</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05125772783257385</v>
+        <v>0.0551619643146509</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1559134694930145</v>
+        <v>0.1612269699439802</v>
       </c>
     </row>
     <row r="33">
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7980</v>
+        <v>6924</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01519992586692069</v>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07423539817351228</v>
+        <v>0.06441076921109352</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -7027,19 +7027,19 @@
         <v>4305</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1039</v>
+        <v>1023</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>10096</v>
+        <v>10105</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05697110766468402</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01375018181648471</v>
+        <v>0.01353648459085693</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1335995958398154</v>
+        <v>0.1337151904611656</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -7048,19 +7048,19 @@
         <v>5939</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>13606</v>
+        <v>13479</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03244233939782851</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01091690172860968</v>
+        <v>0.01037326462409657</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07432285489320996</v>
+        <v>0.07362735191305506</v>
       </c>
     </row>
     <row r="35">
@@ -7077,19 +7077,19 @@
         <v>19236</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>12316</v>
+        <v>12384</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>29504</v>
+        <v>28941</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1789348350208125</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1145647063766417</v>
+        <v>0.1152022981773464</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2744549547946556</v>
+        <v>0.269217757779712</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>21</v>
@@ -7098,19 +7098,19 @@
         <v>19724</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>12297</v>
+        <v>13784</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>27354</v>
+        <v>27993</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2610066241603736</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1627231879657691</v>
+        <v>0.1824101018198314</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3619730745600608</v>
+        <v>0.3704356673710384</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>40</v>
@@ -7119,19 +7119,19 @@
         <v>38960</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>28981</v>
+        <v>29116</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>51676</v>
+        <v>50847</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2128126346583022</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1583028586891771</v>
+        <v>0.159042899727136</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2822736297175113</v>
+        <v>0.2777463171911416</v>
       </c>
     </row>
     <row r="36">
@@ -7148,19 +7148,19 @@
         <v>46792</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>36328</v>
+        <v>37067</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>58261</v>
+        <v>57544</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4352624893780953</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3379319170774962</v>
+        <v>0.3447991003178342</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5419505992382139</v>
+        <v>0.5352863169425512</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>26</v>
@@ -7169,19 +7169,19 @@
         <v>25339</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>17787</v>
+        <v>18230</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>33147</v>
+        <v>34440</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3353163451605077</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2353725824075876</v>
+        <v>0.2412398287371872</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4386374860102329</v>
+        <v>0.4557446249799626</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>71</v>
@@ -7190,19 +7190,19 @@
         <v>72131</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>58944</v>
+        <v>59999</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>85351</v>
+        <v>87132</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3940064684744283</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3219719594053623</v>
+        <v>0.327736770897499</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4662167000671142</v>
+        <v>0.4759457296541825</v>
       </c>
     </row>
     <row r="37">
@@ -7219,19 +7219,19 @@
         <v>16922</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>9843</v>
+        <v>10283</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>24957</v>
+        <v>26247</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1574121975412648</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09155692139221835</v>
+        <v>0.09565181602864778</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2321584609387491</v>
+        <v>0.2441493238154651</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>19</v>
@@ -7240,19 +7240,19 @@
         <v>18250</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>11419</v>
+        <v>11611</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>25703</v>
+        <v>26038</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2415102064097309</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1511041813892622</v>
+        <v>0.1536484393970728</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3401346689581076</v>
+        <v>0.3445623140559807</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>35</v>
@@ -7261,19 +7261,19 @@
         <v>35173</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25977</v>
+        <v>25003</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>47339</v>
+        <v>45903</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1921263852570093</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1418967740331782</v>
+        <v>0.1365762700353859</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2585843875402714</v>
+        <v>0.2507388289469652</v>
       </c>
     </row>
     <row r="38">
@@ -7290,19 +7290,19 @@
         <v>22918</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>14547</v>
+        <v>15618</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>31731</v>
+        <v>32876</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2131905521929067</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1353145777664207</v>
+        <v>0.1452840149452951</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2951649343838195</v>
+        <v>0.3058130701128614</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>7</v>
@@ -7311,19 +7311,19 @@
         <v>7949</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3463</v>
+        <v>3409</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>15099</v>
+        <v>15358</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1051957166047038</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04582694753521963</v>
+        <v>0.04511604418871543</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1998128209366591</v>
+        <v>0.2032361591124318</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>29</v>
@@ -7332,19 +7332,19 @@
         <v>30868</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>21554</v>
+        <v>21661</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>41944</v>
+        <v>42403</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1686121722124317</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.117735543656557</v>
+        <v>0.1183223113466316</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2291116385822941</v>
+        <v>0.231620056957992</v>
       </c>
     </row>
     <row r="39">
@@ -7436,19 +7436,19 @@
         <v>71916</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>57532</v>
+        <v>56450</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>89559</v>
+        <v>87576</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2003925968954763</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1603125576328121</v>
+        <v>0.1572979920731727</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2495541855389277</v>
+        <v>0.2440293415679443</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>67</v>
@@ -7457,19 +7457,19 @@
         <v>70190</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>56195</v>
+        <v>56127</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>85328</v>
+        <v>85291</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2472809178003434</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1979765468288708</v>
+        <v>0.1977364903257662</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3006142016144238</v>
+        <v>0.3004842116158988</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>131</v>
@@ -7478,19 +7478,19 @@
         <v>142106</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>119067</v>
+        <v>120927</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>163631</v>
+        <v>164981</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2210999694139477</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1852550407243884</v>
+        <v>0.1881479621722049</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2545906311542865</v>
+        <v>0.256690732681198</v>
       </c>
     </row>
     <row r="41">
@@ -7507,19 +7507,19 @@
         <v>78448</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>64103</v>
+        <v>60996</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>96911</v>
+        <v>95018</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2185939776688376</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1786220725529103</v>
+        <v>0.1699631112941638</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2700424143597992</v>
+        <v>0.2647659240675866</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>63</v>
@@ -7528,19 +7528,19 @@
         <v>63887</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>50776</v>
+        <v>50992</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>77911</v>
+        <v>78439</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2250764478327161</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1788864314564164</v>
+        <v>0.1796465841593704</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2744825689105033</v>
+        <v>0.2763420168057903</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>133</v>
@@ -7549,19 +7549,19 @@
         <v>142335</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>121711</v>
+        <v>123175</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>165484</v>
+        <v>163865</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2214568424917359</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1893688855174161</v>
+        <v>0.1916460550358655</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2574748561569925</v>
+        <v>0.2549558421876134</v>
       </c>
     </row>
     <row r="42">
@@ -7578,19 +7578,19 @@
         <v>78920</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>63523</v>
+        <v>63033</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>96891</v>
+        <v>95136</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2199085444933669</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1770068572577968</v>
+        <v>0.1756396734939155</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2699865003065339</v>
+        <v>0.2650948022406125</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>70</v>
@@ -7599,19 +7599,19 @@
         <v>73788</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>59229</v>
+        <v>59583</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>88996</v>
+        <v>91571</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2599587722249548</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2086671367251793</v>
+        <v>0.2099136167915474</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.313536149483187</v>
+        <v>0.3226071451715662</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>139</v>
@@ -7620,19 +7620,19 @@
         <v>152708</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>129694</v>
+        <v>130623</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>174929</v>
+        <v>176582</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.237595997767078</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2017888600840854</v>
+        <v>0.2032347553075263</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2721687229633701</v>
+        <v>0.2747407576163606</v>
       </c>
     </row>
     <row r="43">
@@ -7649,19 +7649,19 @@
         <v>47578</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>35149</v>
+        <v>34781</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>64495</v>
+        <v>64011</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1325743559127576</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.09794181346783334</v>
+        <v>0.09691715184533312</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1797144421913522</v>
+        <v>0.178366348297298</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>31</v>
@@ -7670,19 +7670,19 @@
         <v>31481</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>22800</v>
+        <v>21321</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>44395</v>
+        <v>42277</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1109091794587928</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08032690356386873</v>
+        <v>0.07511497264105607</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1564064448522472</v>
+        <v>0.148942233288339</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>69</v>
@@ -7691,19 +7691,19 @@
         <v>79059</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>63025</v>
+        <v>62729</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>97619</v>
+        <v>96454</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.123006325519413</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.09806041216910125</v>
+        <v>0.09759837842185379</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1518843357723343</v>
+        <v>0.1500718784190002</v>
       </c>
     </row>
     <row r="44">
@@ -7720,19 +7720,19 @@
         <v>82014</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>65147</v>
+        <v>64553</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>99502</v>
+        <v>99835</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2285305250295615</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1815302833644413</v>
+        <v>0.1798767767440203</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2772607217743058</v>
+        <v>0.2781887403334972</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>42</v>
@@ -7741,19 +7741,19 @@
         <v>44500</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>33460</v>
+        <v>32977</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>58729</v>
+        <v>57653</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1567746826831929</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1178797849667464</v>
+        <v>0.116180094380429</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2069053136712907</v>
+        <v>0.2031127218445893</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>113</v>
@@ -7762,19 +7762,19 @@
         <v>126514</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>107254</v>
+        <v>106559</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>151013</v>
+        <v>149076</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1968408648078255</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1668745332052029</v>
+        <v>0.1657930163539185</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2349581744016318</v>
+        <v>0.2319445143727079</v>
       </c>
     </row>
     <row r="45">
@@ -7866,19 +7866,19 @@
         <v>6665</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2035</v>
+        <v>2888</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>13908</v>
+        <v>14120</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0203265633505252</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.006206706474374256</v>
+        <v>0.008808538749117833</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04241292004719452</v>
+        <v>0.04306158674445021</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>7</v>
@@ -7887,19 +7887,19 @@
         <v>7675</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2984</v>
+        <v>3029</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>15184</v>
+        <v>14603</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03235646497684058</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01257811416335203</v>
+        <v>0.01277069627091698</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.06401033958577435</v>
+        <v>0.0615619206881789</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>13</v>
@@ -7908,19 +7908,19 @@
         <v>14340</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>8077</v>
+        <v>7622</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>23494</v>
+        <v>23577</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02537606772269081</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01429220347473936</v>
+        <v>0.01348763886752815</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04157380287884043</v>
+        <v>0.04172008108453022</v>
       </c>
     </row>
     <row r="47">
@@ -7937,19 +7937,19 @@
         <v>19928</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>11854</v>
+        <v>13066</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>29386</v>
+        <v>30636</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.06077216764361604</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03614919466700708</v>
+        <v>0.03984683671130476</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.08961521601284644</v>
+        <v>0.09342865429405176</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>18</v>
@@ -7958,19 +7958,19 @@
         <v>18898</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>11106</v>
+        <v>12126</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>28262</v>
+        <v>29562</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.07966876023300642</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.04681904901519206</v>
+        <v>0.05111966854402047</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1191464683728295</v>
+        <v>0.1246252187061548</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>37</v>
@@ -7979,19 +7979,19 @@
         <v>38826</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>28192</v>
+        <v>27966</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>53008</v>
+        <v>52185</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.06870393881375025</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04988639317146316</v>
+        <v>0.04948628721212975</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.09379973557402771</v>
+        <v>0.09234359236810187</v>
       </c>
     </row>
     <row r="48">
@@ -8008,19 +8008,19 @@
         <v>63916</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>50580</v>
+        <v>50566</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>79526</v>
+        <v>78585</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1949173009622197</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1542467859881748</v>
+        <v>0.1542047064814518</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2425207314195101</v>
+        <v>0.2396517527190696</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>58</v>
@@ -8029,19 +8029,19 @@
         <v>60098</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>46584</v>
+        <v>48240</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>74116</v>
+        <v>75153</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2533586076958889</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1963859885160085</v>
+        <v>0.203367253840911</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3124517480994586</v>
+        <v>0.3168240669052896</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>120</v>
@@ -8050,19 +8050,19 @@
         <v>124014</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>106683</v>
+        <v>104584</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>147911</v>
+        <v>145607</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2194478119367404</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1887794800263803</v>
+        <v>0.1850662158895272</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2617345515645527</v>
+        <v>0.2576565071280584</v>
       </c>
     </row>
     <row r="49">
@@ -8079,19 +8079,19 @@
         <v>148887</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>132015</v>
+        <v>131297</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>169017</v>
+        <v>168057</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4540441326225085</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4025924993505178</v>
+        <v>0.4004009197767894</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.5154328225329557</v>
+        <v>0.5125041298626336</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>86</v>
@@ -8100,19 +8100,19 @@
         <v>89794</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>76342</v>
+        <v>74668</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>105171</v>
+        <v>104440</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3785483531534782</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3218356820875852</v>
+        <v>0.3147810109471711</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4433726218392736</v>
+        <v>0.4402900952821331</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>228</v>
@@ -8121,19 +8121,19 @@
         <v>238681</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>217544</v>
+        <v>216259</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>262318</v>
+        <v>262263</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.4223550731147392</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.384952168049385</v>
+        <v>0.3826794247232254</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4641812811066968</v>
+        <v>0.464084639543155</v>
       </c>
     </row>
     <row r="50">
@@ -8150,19 +8150,19 @@
         <v>88517</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>74210</v>
+        <v>73713</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>106374</v>
+        <v>106672</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2699398354211305</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2263105551668708</v>
+        <v>0.2247935632844353</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3243964294769923</v>
+        <v>0.3253047770768542</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>59</v>
@@ -8171,19 +8171,19 @@
         <v>60741</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>47984</v>
+        <v>48495</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>75654</v>
+        <v>74153</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2560678139407859</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2022867392795399</v>
+        <v>0.2044403951274805</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.318938463384772</v>
+        <v>0.3126077354007198</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>144</v>
@@ -8192,19 +8192,19 @@
         <v>149258</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>129188</v>
+        <v>129447</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>171067</v>
+        <v>171336</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2641171084120793</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2286036358023195</v>
+        <v>0.2290617699582445</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.302708956934869</v>
+        <v>0.3031849212123303</v>
       </c>
     </row>
     <row r="51">
@@ -8296,19 +8296,19 @@
         <v>208978</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>183388</v>
+        <v>181826</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>238305</v>
+        <v>236424</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1475483343963626</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1294803330236287</v>
+        <v>0.1283777774177462</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1682542780958702</v>
+        <v>0.1669265591172341</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>187</v>
@@ -8317,19 +8317,19 @@
         <v>194402</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>169066</v>
+        <v>170407</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>220246</v>
+        <v>221772</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1883768620046717</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1638268542358808</v>
+        <v>0.1651255772084693</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2134206483946004</v>
+        <v>0.2148986135241817</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>377</v>
@@ -8338,19 +8338,19 @@
         <v>403380</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>371149</v>
+        <v>366883</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>439793</v>
+        <v>441990</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1647578161192035</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1515935601604763</v>
+        <v>0.1498512147652205</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1796306953464039</v>
+        <v>0.180527897040392</v>
       </c>
     </row>
     <row r="53">
@@ -8367,19 +8367,19 @@
         <v>182394</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>158142</v>
+        <v>155028</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>209817</v>
+        <v>208001</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1287787342131426</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1116559748305286</v>
+        <v>0.1094568572342605</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1481403552198892</v>
+        <v>0.1468581743716836</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>142</v>
@@ -8388,19 +8388,19 @@
         <v>143422</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>121200</v>
+        <v>122771</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>167556</v>
+        <v>167756</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.138977315025586</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1174442481814948</v>
+        <v>0.1189661708423892</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1623628920743687</v>
+        <v>0.162556967799646</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>310</v>
@@ -8409,19 +8409,19 @@
         <v>325816</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>293557</v>
+        <v>294892</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>363634</v>
+        <v>361851</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1330775003056759</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1199013088281367</v>
+        <v>0.1204467909131243</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1485238501684705</v>
+        <v>0.1477957071864464</v>
       </c>
     </row>
     <row r="54">
@@ -8438,19 +8438,19 @@
         <v>321776</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>289648</v>
+        <v>289967</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>352294</v>
+        <v>353310</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2271887602125272</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2045052214571888</v>
+        <v>0.2047300582863866</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2487358701684181</v>
+        <v>0.2494530344494705</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>233</v>
@@ -8459,19 +8459,19 @@
         <v>235281</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>210123</v>
+        <v>209558</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>263195</v>
+        <v>263288</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2279892776830816</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2036107417787917</v>
+        <v>0.203063728536047</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2550379276539153</v>
+        <v>0.2551283244000766</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>538</v>
@@ -8480,19 +8480,19 @@
         <v>557056</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>516123</v>
+        <v>512100</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>597369</v>
+        <v>597434</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2275261833719045</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2108070295468144</v>
+        <v>0.2091641389138397</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2439914918662202</v>
+        <v>0.2440181536189307</v>
       </c>
     </row>
     <row r="55">
@@ -8509,19 +8509,19 @@
         <v>319934</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>286474</v>
+        <v>290175</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>351649</v>
+        <v>353972</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2258885385277978</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.202264330204255</v>
+        <v>0.2048771049033186</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2482806712726814</v>
+        <v>0.2499205742673034</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>205</v>
@@ -8530,19 +8530,19 @@
         <v>207484</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>183323</v>
+        <v>183941</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>234249</v>
+        <v>234519</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2010536406552324</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1776420487481635</v>
+        <v>0.178240496947014</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2269890315133216</v>
+        <v>0.2272507269150285</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>503</v>
@@ -8551,19 +8551,19 @@
         <v>527418</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>489131</v>
+        <v>491278</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>568792</v>
+        <v>568254</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2154204725439646</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1997824288471605</v>
+        <v>0.2006592314267193</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2323194648055419</v>
+        <v>0.2320996444993069</v>
       </c>
     </row>
     <row r="56">
@@ -8580,19 +8580,19 @@
         <v>383255</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>348364</v>
+        <v>346574</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>420645</v>
+        <v>415251</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2705956326501697</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2459609602044038</v>
+        <v>0.2446975112633692</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2969949709355487</v>
+        <v>0.2931865264868005</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>241</v>
@@ -8601,19 +8601,19 @@
         <v>251394</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>221346</v>
+        <v>223650</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>276586</v>
+        <v>282098</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2436029046314284</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2144862209914911</v>
+        <v>0.2167185145121633</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.268014164931873</v>
+        <v>0.273355553054642</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>597</v>
@@ -8622,19 +8622,19 @@
         <v>634648</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>589296</v>
+        <v>592198</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>676823</v>
+        <v>680977</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2592180276592514</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2406943840505118</v>
+        <v>0.241879551823103</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2764441393862796</v>
+        <v>0.2781408134703335</v>
       </c>
     </row>
     <row r="57">
